--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N2">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q2">
-        <v>9743.48105589252</v>
+        <v>878.3378096916388</v>
       </c>
       <c r="R2">
-        <v>87691.32950303268</v>
+        <v>7905.040287224749</v>
       </c>
       <c r="S2">
-        <v>0.008691102872631355</v>
+        <v>0.001472780176464377</v>
       </c>
       <c r="T2">
-        <v>0.008691102872631355</v>
+        <v>0.001472780176464377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q3">
-        <v>4770.236198789195</v>
+        <v>4183.27792499491</v>
       </c>
       <c r="R3">
-        <v>42932.12578910276</v>
+        <v>37649.50132495419</v>
       </c>
       <c r="S3">
-        <v>0.004255010431344157</v>
+        <v>0.007014441064237594</v>
       </c>
       <c r="T3">
-        <v>0.004255010431344157</v>
+        <v>0.007014441064237592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N4">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q4">
-        <v>2351.302286920344</v>
+        <v>1990.219780310017</v>
       </c>
       <c r="R4">
-        <v>21161.7205822831</v>
+        <v>17911.97802279015</v>
       </c>
       <c r="S4">
-        <v>0.002097341796330527</v>
+        <v>0.003337162771436347</v>
       </c>
       <c r="T4">
-        <v>0.002097341796330527</v>
+        <v>0.003337162771436346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N5">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q5">
-        <v>6975.302779145472</v>
+        <v>4575.976197099519</v>
       </c>
       <c r="R5">
-        <v>62777.72501230925</v>
+        <v>41183.78577389566</v>
       </c>
       <c r="S5">
-        <v>0.00622191121156252</v>
+        <v>0.007672910077077343</v>
       </c>
       <c r="T5">
-        <v>0.00622191121156252</v>
+        <v>0.007672910077077342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N6">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q6">
-        <v>403881.930286517</v>
+        <v>41516.90986691589</v>
       </c>
       <c r="R6">
-        <v>3634937.372578653</v>
+        <v>373652.188802243</v>
       </c>
       <c r="S6">
-        <v>0.360259273290649</v>
+        <v>0.06961476685322077</v>
       </c>
       <c r="T6">
-        <v>0.3602592732906489</v>
+        <v>0.06961476685322075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q7">
         <v>197733.4581796564</v>
@@ -883,10 +883,10 @@
         <v>1779601.123616907</v>
       </c>
       <c r="S7">
-        <v>0.1763765759426649</v>
+        <v>0.3315557115012329</v>
       </c>
       <c r="T7">
-        <v>0.1763765759426649</v>
+        <v>0.3315557115012329</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N8">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q8">
-        <v>97465.01285125152</v>
+        <v>94072.8889531609</v>
       </c>
       <c r="R8">
-        <v>877185.1156612638</v>
+        <v>846656.0005784482</v>
       </c>
       <c r="S8">
-        <v>0.08693796891617915</v>
+        <v>0.1577396355527389</v>
       </c>
       <c r="T8">
-        <v>0.08693796891617914</v>
+        <v>0.1577396355527389</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N9">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q9">
-        <v>289136.7812605778</v>
+        <v>216295.3583824774</v>
       </c>
       <c r="R9">
-        <v>2602231.031345201</v>
+        <v>1946658.225442297</v>
       </c>
       <c r="S9">
-        <v>0.2579075687407907</v>
+        <v>0.3626799536260509</v>
       </c>
       <c r="T9">
-        <v>0.2579075687407907</v>
+        <v>0.3626799536260509</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N10">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q10">
-        <v>20420.81550384677</v>
+        <v>2301.386683948362</v>
       </c>
       <c r="R10">
-        <v>183787.3395346209</v>
+        <v>20712.48015553526</v>
       </c>
       <c r="S10">
-        <v>0.01821519508981076</v>
+        <v>0.003858921532352317</v>
       </c>
       <c r="T10">
-        <v>0.01821519508981076</v>
+        <v>0.003858921532352316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q11">
-        <v>9997.670521084865</v>
+        <v>10960.86267220846</v>
       </c>
       <c r="R11">
-        <v>89979.03468976378</v>
+        <v>98647.76404987615</v>
       </c>
       <c r="S11">
-        <v>0.008917837730373988</v>
+        <v>0.01837896659173119</v>
       </c>
       <c r="T11">
-        <v>0.008917837730373987</v>
+        <v>0.01837896659173119</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N12">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q12">
-        <v>4927.962595661353</v>
+        <v>5214.6967260172</v>
       </c>
       <c r="R12">
-        <v>44351.66336095217</v>
+        <v>46932.2705341548</v>
       </c>
       <c r="S12">
-        <v>0.004395701046236499</v>
+        <v>0.008743904542886639</v>
       </c>
       <c r="T12">
-        <v>0.004395701046236498</v>
+        <v>0.008743904542886639</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N13">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q13">
-        <v>14619.14590065895</v>
+        <v>11989.79546350929</v>
       </c>
       <c r="R13">
-        <v>131572.3131059306</v>
+        <v>107908.1591715836</v>
       </c>
       <c r="S13">
-        <v>0.01304015476643171</v>
+        <v>0.02010426157644104</v>
       </c>
       <c r="T13">
-        <v>0.01304015476643171</v>
+        <v>0.02010426157644104</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N14">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q14">
-        <v>24139.20541947044</v>
+        <v>352.5814779365314</v>
       </c>
       <c r="R14">
-        <v>217252.848775234</v>
+        <v>3173.233301428782</v>
       </c>
       <c r="S14">
-        <v>0.02153196751353258</v>
+        <v>0.0005912019334289381</v>
       </c>
       <c r="T14">
-        <v>0.02153196751353258</v>
+        <v>0.000591201933428938</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q15">
-        <v>11818.12853552249</v>
+        <v>1679.247206643406</v>
       </c>
       <c r="R15">
-        <v>106363.1568197024</v>
+        <v>15113.22485979065</v>
       </c>
       <c r="S15">
-        <v>0.01054167091566203</v>
+        <v>0.002815729859330374</v>
       </c>
       <c r="T15">
-        <v>0.01054167091566203</v>
+        <v>0.002815729859330374</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N16">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q16">
-        <v>5825.286525590891</v>
+        <v>798.9120174691989</v>
       </c>
       <c r="R16">
-        <v>52427.57873031802</v>
+        <v>7190.20815722279</v>
       </c>
       <c r="S16">
-        <v>0.005196106418849715</v>
+        <v>0.00133960051484164</v>
       </c>
       <c r="T16">
-        <v>0.005196106418849715</v>
+        <v>0.00133960051484164</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N17">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q17">
-        <v>17281.1201338526</v>
+        <v>1836.883751073132</v>
       </c>
       <c r="R17">
-        <v>155530.0812046734</v>
+        <v>16531.95375965819</v>
       </c>
       <c r="S17">
-        <v>0.01541461331695031</v>
+        <v>0.003080051826528796</v>
       </c>
       <c r="T17">
-        <v>0.01541461331695031</v>
+        <v>0.003080051826528796</v>
       </c>
     </row>
   </sheetData>
